--- a/config_1.19/act_ty_collect_words_config.xlsx
+++ b/config_1.19/act_ty_collect_words_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="93">
   <si>
     <t>line</t>
   </si>
@@ -40,6 +40,9 @@
     <t>collect_config|对应的工作簿名</t>
   </si>
   <si>
+    <t>actp_buy_gift_bag_class_fclb_free_001</t>
+  </si>
+  <si>
     <t>gift_config1</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>collect_config2</t>
   </si>
   <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
+  </si>
+  <si>
     <t>gift_config3</t>
   </si>
   <si>
@@ -73,13 +79,103 @@
     <t>is_sort|购买完的是否排序到底部(1是0否)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"prop_fclb_gong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop_fclb_xi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop_fclb_fa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prop_fclb_cai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
     <t>字符</t>
   </si>
   <si>
     <t>gift_id|礼包id</t>
   </si>
   <si>
-    <t>gift_page|礼包页描述</t>
+    <t>gift_page|礼包页图片(选中,未选中)</t>
   </si>
   <si>
     <t>gift_name|礼包名称</t>
@@ -100,82 +196,54 @@
     <t>xg_txt|限购描述</t>
   </si>
   <si>
-    <t>恭</t>
-  </si>
-  <si>
     <t>恭字礼包</t>
   </si>
   <si>
+    <t>"60万金币","2万小游戏币","恭字符*1",</t>
+  </si>
+  <si>
     <t>"","","恭字符:可兑换奖励"</t>
   </si>
   <si>
-    <t>喜</t>
+    <t>每日限购3次</t>
   </si>
   <si>
     <t>喜字礼包</t>
   </si>
   <si>
-    <t>发</t>
+    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
+  </si>
+  <si>
+    <t>"","","喜字符:可兑换奖励"</t>
   </si>
   <si>
     <t>发字礼包</t>
   </si>
   <si>
-    <t>财</t>
+    <t>"180万金币","5万小游戏币","发字符*1",</t>
+  </si>
+  <si>
+    <t>"","","发字符:可兑换奖励"</t>
   </si>
   <si>
     <t>财字礼包</t>
   </si>
   <si>
-    <t>exchange_type|兑换类型</t>
-  </si>
-  <si>
-    <t>exchange_id|兑换id</t>
-  </si>
-  <si>
-    <t>collect_title|集字标题</t>
-  </si>
-  <si>
-    <t>need_item|需要的item_key</t>
-  </si>
-  <si>
-    <t>need_num|需要的item数量</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>"",</t>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_free_001</t>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","2万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"480万金币","10万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>"","","财字符:可兑换奖励"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -189,45 +257,59 @@
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                                               </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","喜字符:可兑换奖励"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","发字符:可兑换奖励"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","财字符:可兑换奖励"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日限购3次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","5万小游戏币","恭字符*1",</t>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","喜字符*1",</t>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","发字符*1",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","财字符*1",</t>
+  </si>
+  <si>
+    <t>"480万金币","10万小游戏币","恭字符*1",</t>
+  </si>
+  <si>
+    <t>"980万金币","20万小游戏币","喜字符*1",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","发字符*1",</t>
+  </si>
+  <si>
+    <t>"4980万金币","80万小游戏币","财字符*1",</t>
+  </si>
+  <si>
+    <t>exchange_type|兑换类型</t>
+  </si>
+  <si>
+    <t>exchange_id|兑换id</t>
+  </si>
+  <si>
+    <t>collect_title|集字标题</t>
+  </si>
+  <si>
+    <t>need_item|需要的item_key</t>
+  </si>
+  <si>
+    <t>need_num|需要的item数量</t>
   </si>
   <si>
     <t>发财礼包福利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fclb_gong,"prop_fclb_xi"</t>
-  </si>
-  <si>
-    <r>
-      <t>"prop_fclb_gong</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","</t>
-    </r>
+  </si>
+  <si>
+    <t>"prop_fclb_gong","prop_fclb_xi"</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>"10万金币",</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -237,17 +319,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>prop_fclb_xi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","</t>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -258,17 +330,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>prop_fclb_fa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","</t>
+      <t>ty_icon_jb_50y</t>
     </r>
     <r>
       <rPr>
@@ -279,25 +341,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>prop_fclb_cai</t>
-    </r>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <t>"",</t>
+  </si>
+  <si>
+    <t>"prop_fclb_fa","prop_fclb_cai"</t>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fclb_fa,"prop_fclb_cai"</t>
-  </si>
-  <si>
-    <r>
       <t>1,1</t>
     </r>
     <r>
@@ -311,23 +376,28 @@
       </rPr>
       <t>,1,1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万金币",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万金币",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"50万金币",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
+  </si>
+  <si>
+    <t>"100万金币",</t>
+  </si>
+  <si>
+    <t>"150万金币",</t>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+  </si>
+  <si>
+    <t>"250万金币",</t>
+  </si>
+  <si>
+    <t>"350万金币",</t>
+  </si>
+  <si>
+    <r>
+      <t>"collect_words_xz_1","</t>
     </r>
     <r>
       <rPr>
@@ -338,123 +408,683 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ty_icon_jb_50y</t>
+      <t>collect_words_wxz_1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_98y</t>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"collect_words_xz_2","collect_words_wxz_2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","5万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万小游戏币","恭字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万小游戏币","喜字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","发字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","80万小游戏币","财字符*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_2","collect_words_1"</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_4","collect_words_2"</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_5","collect_words_3"</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","collect_words_4"</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","collect_words_2"</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_2","collect_words_3"</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_4","collect_words_4"</t>
-  </si>
-  <si>
-    <t>exchange_type|兑换类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"150万金币",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"250万金币",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"350万金币",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"collect_words_xz_3","collect_words_wxz_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"collect_words_xz_4","collect_words_wxz_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_2","collect_words_1"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_2","collect_words_2"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48y","ty_icon_yxb_4","collect_words_4"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","collect_words_3"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_2","collect_words_1"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_4","collect_words_2"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_5","collect_words_3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98y","ty_icon_yxb_5","collect_words_4"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_2","collect_words_1"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","collect_words_2"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_198y","ty_icon_yxb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","collect_words_3"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_498y","ty_icon_yxb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","collect_words_4"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>198</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>198</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -473,13 +1103,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -490,7 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +1144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,13 +1160,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,7 +1235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,7 +1270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,7 +1482,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,13 +1522,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -918,13 +1547,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -943,13 +1572,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1406,7 +2035,7 @@
       <c r="O30" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1417,7 +2046,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1434,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1463,10 +2092,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3">
         <v>1611014400</v>
@@ -1930,7 +2559,7 @@
       <c r="O28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1940,14 +2569,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
     <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="50.375" customWidth="1"/>
@@ -1961,28 +2590,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1996,29 +2625,29 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>10437</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
+      <c r="C2" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>70</v>
+      <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2032,29 +2661,29 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>10438</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
+      <c r="C3" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2068,29 +2697,29 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>10439</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
+      <c r="C4" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>75</v>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2104,29 +2733,29 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>10440</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
+      <c r="C5" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3">
         <v>48</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>76</v>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2252,7 +2881,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2571,9 +3200,9 @@
       <c r="P29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2582,13 +3211,13 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
     <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="50.375" customWidth="1"/>
@@ -2602,28 +3231,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2637,29 +3266,29 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>10441</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
+      <c r="C2" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>70</v>
+      <c r="F2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2673,29 +3302,29 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>10442</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
+      <c r="C3" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3">
         <v>48</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>71</v>
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2709,29 +3338,29 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>10443</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
+      <c r="C4" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3">
         <v>98</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>72</v>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2745,29 +3374,29 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>10444</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
+      <c r="C5" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3">
         <v>198</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>73</v>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2893,7 +3522,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3212,7 +3841,7 @@
       <c r="P29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3222,13 +3851,13 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
     <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="50.375" customWidth="1"/>
@@ -3242,28 +3871,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3277,29 +3906,29 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>10445</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
+      <c r="C2" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
         <v>48</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>70</v>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3313,29 +3942,29 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>10446</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
+      <c r="C3" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3">
         <v>98</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>74</v>
+      <c r="F3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3349,29 +3978,29 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>10447</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
+      <c r="C4" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3">
         <v>198</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>75</v>
+      <c r="F4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3385,29 +4014,29 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>10448</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
+      <c r="C5" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3">
         <v>498</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>76</v>
+      <c r="F5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3533,7 +4162,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3852,7 +4481,7 @@
       <c r="P29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3862,7 +4491,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3880,29 +4509,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>77</v>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3925,22 +4554,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>60</v>
+      <c r="H2" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3963,22 +4592,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -4001,22 +4630,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4509,7 +5138,7 @@
       <c r="R28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4519,7 +5148,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4538,28 +5167,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -4582,22 +5211,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>60</v>
+      <c r="H2" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4617,25 +5246,25 @@
         <v>25</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -4655,25 +5284,25 @@
         <v>26</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -5166,7 +5795,7 @@
       <c r="R28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5176,7 +5805,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5195,28 +5824,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5239,22 +5868,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5274,25 +5903,25 @@
         <v>28</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -5312,25 +5941,25 @@
         <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -5823,7 +6452,7 @@
       <c r="R28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config_1.19/act_ty_collect_words_config.xlsx
+++ b/config_1.19/act_ty_collect_words_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -1050,8 +1050,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1481,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
